--- a/biology/Botanique/AgroParisTech/AgroParisTech.xlsx
+++ b/biology/Botanique/AgroParisTech/AgroParisTech.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fondée en 2007, AgroParisTech, l’institut national des sciences et industries du vivant et de l’environnement[1], est un établissement public placé sous la tutelle du ministère de l’Agriculture et de la Souveraineté alimentaire.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fondée en 2007, AgroParisTech, l’institut national des sciences et industries du vivant et de l’environnement, est un établissement public placé sous la tutelle du ministère de l’Agriculture et de la Souveraineté alimentaire.
 Acteur de l’enseignement supérieur et de la recherche, cet établissement de référence au plan international s’adresse aux grands enjeux du 21e siècle : nourrir les hommes en gérant durablement les territoires, préserver les ressources naturelles, favoriser les innovations et intégrer la bioéconomie
-Grande école c'est l'une des 204 écoles d'ingénieurs françaises accréditées au 1er septembre 2020 à délivrer un diplôme d'ingénieur[2].
+Grande école c'est l'une des 204 écoles d'ingénieurs françaises accréditées au 1er septembre 2020 à délivrer un diplôme d'ingénieur.
 AgroParisTech est membre fondateur et un établissement-composante de l’université Paris-Saclay, membre du réseau ParisTech et membre d’Agreenium.
 </t>
         </is>
@@ -514,24 +526,14 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Créé le 1er janvier 2007, AgroParisTech résulte de la fusion de trois grandes écoles :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Créé le 1er janvier 2007, AgroParisTech résulte de la fusion de trois grandes écoles :
 l'Institut national agronomique Paris-Grignon (INA-PG) ;
 l'École nationale du génie rural, des eaux et des forêts (ENGREF) ;
-l'École nationale supérieure des industries agricoles et alimentaires (ENSIA).
-Institut national agronomique Paris-Grignon
-En 1826, le roi Charles X achète le château de Grignon, son parc et ses terres, pour fonder l’institution royale agronomique de Grignon qui devient ensuite l’école nationale supérieure d'agronomie de Grignon. Elle fusionne en 1971 avec l’Institut national agronomique (créé en 1848) pour devenir l’Institut national agronomique Paris-Grignon (INA-PG)[a 4].
-École nationale du génie rural, des eaux et des forêts
-En 1824 est fondée l’école royale forestière à Nancy. Elle devient « école impériale forestière » en 1853, « école nationale forestière » en 1873, puis « école nationale des eaux et forêts ». Elle devient en 1882 une école d’application de l’institut national agronomique et de l'École polytechnique. Elle était chargée de former les gestionnaires de forêts[a 4]. En 1965, l’école nationale des eaux et forêts fusionne avec l’école supérieure du génie rural (créée en 1919) pour donner naissance à l’École nationale du génie rural, des eaux et des forêts (ENGREF)[a 4]. En 1989, l'École nationale des ingénieurs des travaux des eaux et forêts (école d'ingénieurs forestiers des Barres) est démantelée et intégrée à l’ENGREF.
-École nationale supérieure des industries agricoles et alimentaires
-L’école nationale des industries agricoles est fondée à Douai en 1893. Elle est renommée École nationale supérieure des industries agricoles et alimentaires (ENSIA) en 1960[a 4] et s'installe à Massy, en banlieue sud de Paris, l'année suivante.
-C'est la fusion, en 2007, de l'INA-PG, de l'ENGREF et de l'ENSIA qui donne naissance à AgroParisTech. Les élèves-ingénieurs de ce nouvel établissement suivent alors leur première année sur le site historique du château de Grignon, puis sont redirigés, selon leur orientation, vers les anciens sites de l'INA (Paris 5e), de l'ENSIA (Massy) ou de l'ENGREF (Nancy, Paris 14e, Clermont-Ferrand, Montpellier, Kourou).
-Déménagement à Paris-Saclay
-Les quatre sites de l’Île-de-France (Grignon, Paris 5e, Paris 14e, Massy) intègrent en 2021 le pole de compétitivité technologique Paris-Saclay qui regroupe ainsi la plupart des écoles de ParisTech.
-La date du déménagement fut régulièrement repoussée : en octobre 2011, le déménagement était prévu pour la rentrée 2016, en 2014 la livraison du bâtiment est annoncée pour 2019[3]. En 2015, le projet a définitivement été adopté lors de la réunion du conseil d'administration le 23 mars 2015 (22 voix pour, 20 contre et 2 abstentions) et confirme la date du déménagement des sites franciliens pour 2021. Le protocole d'accord pour la mise en œuvre de l’implantation d’AgroParisTech et de l’INRA sur le campus de Paris-Saclay a été signé le 7 juillet 2015 entre AgroParisTech, l'INRA, la Caisse des dépôts et consignations, Campus Agro SAS et les services de l’État ; l’État concourra à hauteur de la moitié du coût total du projet (près de 250 millions d'euros)[a 5]. Après la vente du site historique situé au 16 rue Claude Bernard à Paris en juin 2019, le site de Massy devrait être cédé. Mais la cession des sites de l'avenue du Maine et surtout de Thiverval-Grignon sont en discussion, compte tenu du fort attachement des anciens élèves et des enseignants chercheurs pour ce site historique. En novembre 2021, la vente du domaine de Thiverval-Grignon à Altarea Cogedim est annulée, pour recréer une procédure de cession du site[4].
-En septembre 2022, les étudiants de première, deuxième et troisième années intègrent le campus Agro Paris-Saclay, situé au cœur du pôle technologique et scientifique Paris-Saclay, à Palaiseau, dans le département de l'Essonne[5].
-</t>
+l'École nationale supérieure des industries agricoles et alimentaires (ENSIA).</t>
         </is>
       </c>
     </row>
@@ -556,10 +558,163 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Institut national agronomique Paris-Grignon</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1826, le roi Charles X achète le château de Grignon, son parc et ses terres, pour fonder l’institution royale agronomique de Grignon qui devient ensuite l’école nationale supérieure d'agronomie de Grignon. Elle fusionne en 1971 avec l’Institut national agronomique (créé en 1848) pour devenir l’Institut national agronomique Paris-Grignon (INA-PG)[a 4].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>AgroParisTech</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/AgroParisTech</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>École nationale du génie rural, des eaux et des forêts</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1824 est fondée l’école royale forestière à Nancy. Elle devient « école impériale forestière » en 1853, « école nationale forestière » en 1873, puis « école nationale des eaux et forêts ». Elle devient en 1882 une école d’application de l’institut national agronomique et de l'École polytechnique. Elle était chargée de former les gestionnaires de forêts[a 4]. En 1965, l’école nationale des eaux et forêts fusionne avec l’école supérieure du génie rural (créée en 1919) pour donner naissance à l’École nationale du génie rural, des eaux et des forêts (ENGREF)[a 4]. En 1989, l'École nationale des ingénieurs des travaux des eaux et forêts (école d'ingénieurs forestiers des Barres) est démantelée et intégrée à l’ENGREF.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>AgroParisTech</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/AgroParisTech</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>École nationale supérieure des industries agricoles et alimentaires</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’école nationale des industries agricoles est fondée à Douai en 1893. Elle est renommée École nationale supérieure des industries agricoles et alimentaires (ENSIA) en 1960[a 4] et s'installe à Massy, en banlieue sud de Paris, l'année suivante.
+C'est la fusion, en 2007, de l'INA-PG, de l'ENGREF et de l'ENSIA qui donne naissance à AgroParisTech. Les élèves-ingénieurs de ce nouvel établissement suivent alors leur première année sur le site historique du château de Grignon, puis sont redirigés, selon leur orientation, vers les anciens sites de l'INA (Paris 5e), de l'ENSIA (Massy) ou de l'ENGREF (Nancy, Paris 14e, Clermont-Ferrand, Montpellier, Kourou).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>AgroParisTech</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/AgroParisTech</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Déménagement à Paris-Saclay</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les quatre sites de l’Île-de-France (Grignon, Paris 5e, Paris 14e, Massy) intègrent en 2021 le pole de compétitivité technologique Paris-Saclay qui regroupe ainsi la plupart des écoles de ParisTech.
+La date du déménagement fut régulièrement repoussée : en octobre 2011, le déménagement était prévu pour la rentrée 2016, en 2014 la livraison du bâtiment est annoncée pour 2019. En 2015, le projet a définitivement été adopté lors de la réunion du conseil d'administration le 23 mars 2015 (22 voix pour, 20 contre et 2 abstentions) et confirme la date du déménagement des sites franciliens pour 2021. Le protocole d'accord pour la mise en œuvre de l’implantation d’AgroParisTech et de l’INRA sur le campus de Paris-Saclay a été signé le 7 juillet 2015 entre AgroParisTech, l'INRA, la Caisse des dépôts et consignations, Campus Agro SAS et les services de l’État ; l’État concourra à hauteur de la moitié du coût total du projet (près de 250 millions d'euros)[a 5]. Après la vente du site historique situé au 16 rue Claude Bernard à Paris en juin 2019, le site de Massy devrait être cédé. Mais la cession des sites de l'avenue du Maine et surtout de Thiverval-Grignon sont en discussion, compte tenu du fort attachement des anciens élèves et des enseignants chercheurs pour ce site historique. En novembre 2021, la vente du domaine de Thiverval-Grignon à Altarea Cogedim est annulée, pour recréer une procédure de cession du site.
+En septembre 2022, les étudiants de première, deuxième et troisième années intègrent le campus Agro Paris-Saclay, situé au cœur du pôle technologique et scientifique Paris-Saclay, à Palaiseau, dans le département de l'Essonne.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>AgroParisTech</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/AgroParisTech</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Campus</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">L’institut a son siège au 22, place de l'Agronomie, à Palaiseau, sur le campus Agro Paris-Saclay au cœur du pôle technologique et scientifique Paris-Saclay, dans le département de l'Essonne.
 AgroParisTech se structure en 8 sites :
@@ -577,37 +732,74 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>AgroParisTech</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/AgroParisTech</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>AgroParisTech</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/AgroParisTech</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Formations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>En s’appuyant sur sa recherche et sur ses liens avec les milieux professionnels, AgroParisTech forme des cadres, ingénieurs, docteurs et managers dans le  domaine du vivant et de l’environnement.
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En s’appuyant sur sa recherche et sur ses liens avec les milieux professionnels, AgroParisTech forme des cadres, ingénieurs, docteurs et managers dans le  domaine du vivant et de l’environnement.
 L’établissement déploie un cursus ingénieur, une offre de master et une formation doctorale en partenariat avec de grandes universités françaises et étrangères, ainsi qu’une gamme de formation professionnelle sous la marque AgroParisTech Executive.
-En troisième année, les élèves peuvent choisir de rejoindre la fonction publique et ils intègrent alors le corps des Ingénieurs des Ponts, des Eaux et des Forêts ou celui des Inspecteurs de la santé publique vétérinaire[6].
-Cursus ingénieur
-AgroParisTech est habilitée à délivrer le diplôme d’ingénieur[7].
+En troisième année, les élèves peuvent choisir de rejoindre la fonction publique et ils intègrent alors le corps des Ingénieurs des Ponts, des Eaux et des Forêts ou celui des Inspecteurs de la santé publique vétérinaire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>AgroParisTech</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/AgroParisTech</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Formations</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Cursus ingénieur</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AgroParisTech est habilitée à délivrer le diplôme d’ingénieur.
 Le cursus ingénieur AgroParisTech intègre les sciences et technologies du vivant et de l’environnement, les sciences de l’ingénieur et les sciences humaines, économiques et sociales. Ouvert en format classique et en format apprentissage, il permet aux étudiants de construire leur parcours de formation tout en les menant tous au même diplôme
 La première année est un tronc commun se déroulant sur le campus Agro-Paris Saclay sur la commune de Palaiseau.
 En entrant en deuxième année les étudiants choisissent leur domaine de spécialité :
@@ -616,39 +808,368 @@
 gestion et ingénierie de l’environnement ;
 ingénierie et santé : Homme, bioproduits, environnement.
 Les enseignements ont lieu alors sur les campus de Palaiseau ou Nancy. La troisième année offre une spécialité qui donne une vision globale et une expertise au futur ingénieur (management des entreprises du vivant, économie, productions végétales et animales, biotechnologies, agriculture et écologie urbaine, gestion forestière et des milieux naturels, conception de bioproduits et gestion de production, sciences politiques et écologie, nutrition, développement agricole, gestion de l'eau et des déchets, management de la qualité...). La formation comprend des projets d'ingénieurs sur les problématiques de l'ingénieur du vivant avec les professeurs ou en partenariat avec des entreprises et des stages obligatoires chaque année. Il est également possible d'effectuer une année de césure (appelée certificat d'expérience à l'international, ou CEI) entre la deuxième et la troisième année pour obtenir plusieurs expériences professionnelles longues.
-Masters
-En partenariat avec de nombreux et prestigieux établissements d’enseignement supérieur français et européens, AgroParisTech propose une offre en master à la pointe dans le domaine des sciences et industries du vivant et de l’environnement, qui permet d’appréhender les plans biotechniques, économiques, sociaux et juridiques de ce secteur.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>AgroParisTech</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/AgroParisTech</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Formations</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Masters</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En partenariat avec de nombreux et prestigieux établissements d’enseignement supérieur français et européens, AgroParisTech propose une offre en master à la pointe dans le domaine des sciences et industries du vivant et de l’environnement, qui permet d’appréhender les plans biotechniques, économiques, sociaux et juridiques de ce secteur.
 Au total, ce sont 11 mentions et 45 parcours, dont :
-Île-de-France (Université Paris-Saclay)
-Mention Agrosciences, Environnement, Territoires, Paysage, Forêt (AETPF)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>AgroParisTech</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/AgroParisTech</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Formations</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Masters</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Île-de-France (Université Paris-Saclay)</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Mention Agrosciences, Environnement, Territoires, Paysage, Forêt (AETPF)
 Mention Biologie intégrative et physiologie (BIP)
 Mention Economie de l'environnement, de l'énergie et des transports (EEET)
 Mention Gestion des Territoires et Développement local (GTDL)
 Mention Génie des procédés et des bio-procédés (GPB)
 Mention Innovation, Entreprise et Société (IES)
-Mention Nutrition et Sciences des Aliments (NSA)
-Clermont-Ferrand
-Mention Gestion des Territoires et Développement local (GTDL)
-Kourou
-Mention Biodiversité, Ecologie et Evolution (BEE)
-Montpellier
-Mention Biodiversité, Ecologie et Evolution (BEE)
+Mention Nutrition et Sciences des Aliments (NSA)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>AgroParisTech</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/AgroParisTech</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Formations</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Masters</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Clermont-Ferrand</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Mention Gestion des Territoires et Développement local (GTDL)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>AgroParisTech</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/AgroParisTech</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Formations</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Masters</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Kourou</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Mention Biodiversité, Ecologie et Evolution (BEE)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>AgroParisTech</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/AgroParisTech</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Formations</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Masters</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Montpellier</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Mention Biodiversité, Ecologie et Evolution (BEE)
 Mention Géomatique
 Mention Sciences eau
-Mention Sciences et technologies de l’agriculture, de l’alimentation et de l’environnement (STAAE)
-Nancy
-Mention Agrosciences, Environnement, Territoires, Paysage, Forêt (AETPF)
-Masters en partenariat
-Les étudiants peuvent préparer des masters en partenariat avec des universités étrangères ou avec d’autres écoles de ParisTech. AgroParisTech propose également une offre de formation continue.
-Doctorats
-AgroParisTech compte quatre écoles doctorales et 80 thèses sont soutenues chaque année[a 6]. Les domaines de compétences des études doctorales à AgroParisTech sont les suivants :
+Mention Sciences et technologies de l’agriculture, de l’alimentation et de l’environnement (STAAE)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>AgroParisTech</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/AgroParisTech</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Formations</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Masters</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Nancy</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Mention Agrosciences, Environnement, Territoires, Paysage, Forêt (AETPF)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>AgroParisTech</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/AgroParisTech</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Formations</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Masters en partenariat</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les étudiants peuvent préparer des masters en partenariat avec des universités étrangères ou avec d’autres écoles de ParisTech. AgroParisTech propose également une offre de formation continue.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>AgroParisTech</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/AgroParisTech</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Formations</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Doctorats</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>AgroParisTech compte quatre écoles doctorales et 80 thèses sont soutenues chaque année[a 6]. Les domaines de compétences des études doctorales à AgroParisTech sont les suivants :
 Les sciences et ingénierie agronomiques, forestières, de l’eau et de l’environnement,
 Les sciences de la vie et de la santé,
 Les sciences et procédés des aliments et des bioproduits,
 Les sciences économiques, sociales et de gestion appliquées à l’agriculture, l’alimentation, la santé, la forêt, l’eau, les territoires, l’environnement et le développement durable,
-Les mathématiques, informatique et physique appliquées aux domaines du vivant et de l’environnement.
-Autres
-AgroParisTech Executive propose des formations de niveau master ou ingénieur (bac+5) ainsi que des formations post-master pour le management, la gestion et l’administration du vivant et de l’environnement :
+Les mathématiques, informatique et physique appliquées aux domaines du vivant et de l’environnement.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>AgroParisTech</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/AgroParisTech</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Formations</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>AgroParisTech Executive propose des formations de niveau master ou ingénieur (bac+5) ainsi que des formations post-master pour le management, la gestion et l’administration du vivant et de l’environnement :
 Formation des Ingénieurs des Ponts, des Eaux et des Forêts (IPEF)
 9 Mastères Spécialisés
 Deux certificats de spécialité
@@ -658,93 +1179,99 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>AgroParisTech</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/AgroParisTech</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>AgroParisTech</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/AgroParisTech</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>Prise de position publique d'étudiants</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 30 avril 2022, huit étudiants d'AgroParisTech dénoncent, dans leur discours de remise de diplôme de fin d'étude, une formation « qui pousse globalement à participer aux ravages sociaux et écologiques » et appellent leurs condisciples à « déserter » pour ouvrir « d’autres voies »[8],[9],[10]. La vidéo de ce discours est diffusée sur Internet le 10 mai suivant ; visionnée plusieurs centaines de milliers de fois en quelques jours et 12 millions de fois en un mois[11], elle est très commentée[12]. Jean-Luc Mélenchon la recommande en affirmant que ce discours représente « l’espoir le plus grand ». François Gemenne, contributeur du GIEC, estime qu'il s'agit d'un « discours d’une exceptionnelle puissance »[13]. Au sein de l'institution, la réception est majoritairement très critique. La direction de l’école met sur pied un « comité d’analyse prospective » pour faire évoluer ses formations[11].
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 30 avril 2022, huit étudiants d'AgroParisTech dénoncent, dans leur discours de remise de diplôme de fin d'étude, une formation « qui pousse globalement à participer aux ravages sociaux et écologiques » et appellent leurs condisciples à « déserter » pour ouvrir « d’autres voies ». La vidéo de ce discours est diffusée sur Internet le 10 mai suivant ; visionnée plusieurs centaines de milliers de fois en quelques jours et 12 millions de fois en un mois, elle est très commentée. Jean-Luc Mélenchon la recommande en affirmant que ce discours représente « l’espoir le plus grand ». François Gemenne, contributeur du GIEC, estime qu'il s'agit d'un « discours d’une exceptionnelle puissance ». Au sein de l'institution, la réception est majoritairement très critique. La direction de l’école met sur pied un « comité d’analyse prospective » pour faire évoluer ses formations.
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>AgroParisTech</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/AgroParisTech</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>AgroParisTech</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/AgroParisTech</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>Abus sexuels</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La direction de l'école saisit le procureur de Paris, le 20 juin 2022, après qu'une enquête interne menée auprès des 970 étudiants recense 17 cas de viol et des centaines de comportements ou propos discriminatoires ou à connotation sexuelle[14].
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La direction de l'école saisit le procureur de Paris, le 20 juin 2022, après qu'une enquête interne menée auprès des 970 étudiants recense 17 cas de viol et des centaines de comportements ou propos discriminatoires ou à connotation sexuelle.
 </t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>AgroParisTech</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/AgroParisTech</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>AgroParisTech</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/AgroParisTech</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
         <is>
           <t>Classements</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
         <is>
           <t xml:space="preserve">Classements nationaux (classée en tant qu'AgroParisTech au titre de son diplôme d'ingénieur)
 Classements internationaux (classée en tant qu'Université Paris-Saclay)
@@ -752,31 +1279,33 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>AgroParisTech</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/AgroParisTech</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>AgroParisTech</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/AgroParisTech</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
         <is>
           <t>Recherche</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
         <is>
           <t>AgroParisTech comprend 22 laboratoires ou unités de recherche (la plupart sont des unités mixtes de recherche). Elles sont regroupées en 5 départements[a 7] :
 Sciences et ingénierie agronomiques, forestières, de l’eau et de l’environnement
@@ -787,31 +1316,33 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>AgroParisTech</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/AgroParisTech</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>AgroParisTech</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/AgroParisTech</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
         <is>
           <t>Anciens élèves</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
         <is>
           <t>Les anciens élèves suivants contribuent à la renommée de l'école :
 Hommes d'affaires et entrepreneurs
